--- a/BackTest/2020-01-13 BackTest OGO.xlsx
+++ b/BackTest/2020-01-13 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>744948.3642999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>990553.461962712</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>9.791</v>
@@ -521,7 +521,7 @@
         <v>868829.673762712</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>10.45</v>
@@ -562,11 +562,9 @@
         <v>551351.9707627121</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>9.791</v>
       </c>
@@ -603,7 +601,7 @@
         <v>607124.931162712</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>10.14</v>
@@ -640,11 +638,9 @@
         <v>1122662.853419049</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>10.14</v>
       </c>
@@ -753,11 +749,17 @@
         <v>797953.7082912714</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.6</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -790,7 +792,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -819,11 +825,17 @@
         <v>890148.3944885191</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10.9</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -852,11 +864,17 @@
         <v>2738016.756291271</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -889,7 +907,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -922,7 +944,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -955,7 +981,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -988,7 +1018,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1021,7 +1055,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1054,7 +1092,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1087,7 +1129,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1120,7 +1166,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1153,7 +1203,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1186,7 +1240,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1219,7 +1277,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1252,7 +1314,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1285,7 +1351,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1318,7 +1388,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1351,7 +1425,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1384,7 +1462,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1417,7 +1499,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1450,7 +1536,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1483,7 +1573,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1516,7 +1610,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1549,7 +1647,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1578,14 +1680,16 @@
         <v>3275227.396461445</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1611,7 +1715,7 @@
         <v>2903045.860361445</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1644,7 +1748,7 @@
         <v>1657446.029961445</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1677,7 +1781,7 @@
         <v>2418645.200161445</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1710,7 +1814,7 @@
         <v>2991096.361161445</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1743,7 +1847,7 @@
         <v>3252640.506561445</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1776,7 +1880,7 @@
         <v>2881580.261261445</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1809,7 +1913,7 @@
         <v>3134595.598361445</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1842,7 +1946,7 @@
         <v>3332818.917161445</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1875,7 +1979,7 @@
         <v>3272622.917161445</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1908,7 +2012,7 @@
         <v>3308809.917161445</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1941,7 +2045,7 @@
         <v>2961672.381861445</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1974,7 +2078,7 @@
         <v>2369101.713861444</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2007,7 +2111,7 @@
         <v>2369101.713861444</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2040,7 +2144,7 @@
         <v>1636772.004861444</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2073,7 +2177,7 @@
         <v>1573437.107561444</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2106,7 +2210,7 @@
         <v>558449.8531614444</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2139,7 +2243,7 @@
         <v>750690.1779737694</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2172,7 +2276,7 @@
         <v>611422.0431737694</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2205,7 +2309,7 @@
         <v>719176.9472737694</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2238,7 +2342,7 @@
         <v>1069912.080178955</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2271,7 +2375,7 @@
         <v>954962.7592789546</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2304,7 +2408,7 @@
         <v>954962.7592789546</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2337,7 +2441,7 @@
         <v>1033051.217978955</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2370,7 +2474,7 @@
         <v>1231500.629478954</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2403,7 +2507,7 @@
         <v>1165796.586878954</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2436,7 +2540,7 @@
         <v>1165796.586878954</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2469,7 +2573,7 @@
         <v>1165796.586878954</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2502,7 +2606,7 @@
         <v>1204535.694878954</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2535,7 +2639,7 @@
         <v>1220748.535178954</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2568,7 +2672,7 @@
         <v>1152240.918178954</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2634,7 +2738,7 @@
         <v>1408292.868778954</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2733,7 +2837,7 @@
         <v>1397981.943378954</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2799,7 +2903,7 @@
         <v>1424400.077578954</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2898,7 +3002,7 @@
         <v>1443136.139578955</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2931,7 +3035,7 @@
         <v>1443136.139578955</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2964,7 +3068,7 @@
         <v>1431758.408678954</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3063,7 +3167,7 @@
         <v>1200612.539578954</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3261,7 +3365,7 @@
         <v>1016259.972678954</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3294,7 +3398,7 @@
         <v>994678.0231789545</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3327,7 +3431,7 @@
         <v>994678.0231789545</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -4119,7 +4223,7 @@
         <v>726490.5827196953</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4317,7 +4421,7 @@
         <v>907032.1663196953</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4350,7 +4454,7 @@
         <v>792517.7101196953</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4383,7 +4487,7 @@
         <v>800313.1435196953</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4416,7 +4520,7 @@
         <v>800833.1435196953</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4449,7 +4553,7 @@
         <v>715490.4289446953</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4482,7 +4586,7 @@
         <v>718333.5589446953</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4515,7 +4619,7 @@
         <v>718333.5589446953</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4713,7 +4817,7 @@
         <v>599022.4985446953</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4746,7 +4850,7 @@
         <v>471936.7121446953</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4779,7 +4883,7 @@
         <v>472456.7121446953</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4812,7 +4916,7 @@
         <v>397164.0742446954</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4845,7 +4949,7 @@
         <v>611159.9662446954</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4878,7 +4982,7 @@
         <v>556102.9585446954</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4911,7 +5015,7 @@
         <v>326089.7666446954</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5043,7 +5147,7 @@
         <v>-5888.61895530457</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5076,7 +5180,7 @@
         <v>-215493.0633553046</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5142,7 +5246,7 @@
         <v>-388948.4143553046</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5274,7 +5378,7 @@
         <v>-469924.9627553046</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5307,7 +5411,7 @@
         <v>-469924.9627553046</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -8145,10 +8249,14 @@
         <v>-1856461.075755305</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="J234" t="n">
+        <v>10.03</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
@@ -8181,8 +8289,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8214,8 +8328,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8772,10 +8892,14 @@
         <v>-1199449.734555305</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="J253" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
@@ -8808,8 +8932,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8841,8 +8971,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8874,8 +9010,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8907,8 +9049,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8940,8 +9088,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8970,11 +9124,19 @@
         <v>-1404910.184155305</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="J259" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9006,8 +9168,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9036,11 +9204,19 @@
         <v>-1400504.184155305</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="J261" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9069,11 +9245,19 @@
         <v>-1451960.184155305</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="J262" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9102,11 +9286,19 @@
         <v>-1244812.184155305</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="J263" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9135,11 +9327,19 @@
         <v>-1381739.990855305</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="J264" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9168,11 +9368,19 @@
         <v>-1373889.990855305</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="J265" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9201,11 +9409,19 @@
         <v>-1454055.594255305</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9234,11 +9450,19 @@
         <v>-1415448.500155305</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="J267" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9270,8 +9494,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9300,11 +9530,19 @@
         <v>-1454005.551855305</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="J269" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9336,8 +9574,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9366,11 +9610,19 @@
         <v>-1483884.528555305</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>10</v>
+      </c>
+      <c r="J271" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9402,8 +9654,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9432,11 +9690,19 @@
         <v>-1389272.774055305</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="J273" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9468,8 +9734,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9498,11 +9770,19 @@
         <v>-1356133.102855305</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="J275" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9531,11 +9811,19 @@
         <v>-1356397.583755305</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="J276" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9564,11 +9852,19 @@
         <v>-1356397.583755305</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="J277" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9600,8 +9896,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9630,11 +9932,19 @@
         <v>-1254278.507155305</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="J279" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9666,8 +9976,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9696,11 +10012,19 @@
         <v>-1283778.507155305</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="J281" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9729,11 +10053,19 @@
         <v>-1283196.965055305</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="J282" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9765,8 +10097,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9795,11 +10133,19 @@
         <v>-1338069.144655305</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="J284" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9828,11 +10174,19 @@
         <v>-1428191.508855305</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>10</v>
+      </c>
+      <c r="J285" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9861,11 +10215,19 @@
         <v>-1428191.508855305</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="J286" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9894,11 +10256,19 @@
         <v>-1428191.508855305</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="J287" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9927,11 +10297,19 @@
         <v>-1429119.276755305</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="J288" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9960,11 +10338,19 @@
         <v>-1429119.276755305</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="J289" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9993,11 +10379,19 @@
         <v>-1429119.276755305</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="J290" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10026,11 +10420,19 @@
         <v>-1429119.276755305</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="J291" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10059,11 +10461,19 @@
         <v>-1468633.423455305</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="J292" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10092,11 +10502,19 @@
         <v>-1459694.867955305</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="J293" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10125,11 +10543,19 @@
         <v>-1459694.867955305</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>10</v>
+      </c>
+      <c r="J294" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10158,15 +10584,19 @@
         <v>-1459694.867955305</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>10</v>
       </c>
       <c r="J295" t="n">
-        <v>10</v>
-      </c>
-      <c r="K295" t="inlineStr"/>
+        <v>10.11</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10195,15 +10625,17 @@
         <v>-1459694.867955305</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>10</v>
+      </c>
       <c r="J296" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L296" t="n">
@@ -10234,15 +10666,17 @@
         <v>-1452104.874755305</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>10</v>
+      </c>
       <c r="J297" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L297" t="n">
@@ -10277,7 +10711,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10316,7 +10750,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10351,11 +10785,13 @@
         <v>-1540379.715055305</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>9.981</v>
+      </c>
       <c r="J300" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10390,11 +10826,13 @@
         <v>-1548286.043255305</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>9.981</v>
+      </c>
       <c r="J301" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10429,11 +10867,13 @@
         <v>-1548286.043255305</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>9.98</v>
+      </c>
       <c r="J302" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10468,11 +10908,13 @@
         <v>-1549465.258855305</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>9.98</v>
+      </c>
       <c r="J303" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10507,13 +10949,13 @@
         <v>-1533339.258855305</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>9.975</v>
       </c>
       <c r="J304" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10548,13 +10990,13 @@
         <v>-1572224.258855305</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>9.976000000000001</v>
       </c>
       <c r="J305" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10589,13 +11031,13 @@
         <v>-1530005.105055305</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>9.974</v>
       </c>
       <c r="J306" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10630,13 +11072,13 @@
         <v>-1803650.068755305</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>10.1</v>
       </c>
       <c r="J307" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10671,13 +11113,13 @@
         <v>-1803650.068755305</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>10.07</v>
       </c>
       <c r="J308" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10712,13 +11154,13 @@
         <v>-1803650.068755305</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>10.07</v>
       </c>
       <c r="J309" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10753,13 +11195,13 @@
         <v>-1736181.064255305</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>10.07</v>
       </c>
       <c r="J310" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10794,11 +11236,13 @@
         <v>-1736181.064255305</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>10.17</v>
+      </c>
       <c r="J311" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -10833,13 +11277,13 @@
         <v>-1689143.064255305</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>10.17</v>
       </c>
       <c r="J312" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -10878,7 +11322,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -10917,7 +11361,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -10952,13 +11396,11 @@
         <v>-1620055.254155305</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="n">
-        <v>10.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -10993,19 +11435,19 @@
         <v>-1837604.555739455</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L316" t="n">
-        <v>1.015</v>
+        <v>1</v>
       </c>
       <c r="M316" t="inlineStr"/>
     </row>
@@ -11035,8 +11477,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11065,11 +11513,19 @@
         <v>-1812353.930339455</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="J318" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11098,11 +11554,19 @@
         <v>-1812353.930339455</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="J319" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11131,15 +11595,17 @@
         <v>-1956169.633739455</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>10.38</v>
       </c>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L320" t="n">
@@ -11170,12 +11636,14 @@
         <v>-2008805.905239455</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>10.37</v>
       </c>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11209,12 +11677,14 @@
         <v>-2008902.992639455</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>10.32</v>
       </c>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11248,12 +11718,14 @@
         <v>-2008952.060439455</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>10.3</v>
       </c>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11287,12 +11759,14 @@
         <v>-2008952.060439455</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>10.19</v>
       </c>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11326,12 +11800,14 @@
         <v>-2037531.455439455</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>10.19</v>
       </c>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11365,12 +11841,14 @@
         <v>-2037531.455439455</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>10.1</v>
       </c>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11404,12 +11882,14 @@
         <v>-2026826.511239455</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>10.1</v>
       </c>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11443,12 +11923,14 @@
         <v>-2026826.511239455</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>10.19</v>
       </c>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11482,12 +11964,14 @@
         <v>-2026826.511239455</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>10.19</v>
       </c>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11521,10 +12005,14 @@
         <v>-2132215.964939455</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="J330" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11558,10 +12046,14 @@
         <v>-2132165.919839455</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="J331" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11595,10 +12087,14 @@
         <v>-2116327.220439455</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>9.991</v>
+      </c>
+      <c r="J332" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11632,10 +12128,14 @@
         <v>-2116376.288239455</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="J333" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11669,10 +12169,14 @@
         <v>-2116376.288239455</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="J334" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11706,10 +12210,14 @@
         <v>-2116376.288239455</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="J335" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11743,10 +12251,14 @@
         <v>-2093178.288239455</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="J336" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11780,12 +12292,14 @@
         <v>-2087178.288239455</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>10.2</v>
       </c>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11819,12 +12333,14 @@
         <v>-2088238.319839455</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>10.25</v>
       </c>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11858,12 +12374,14 @@
         <v>-2088288.170339455</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>10.2</v>
       </c>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11897,12 +12415,14 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>10.15</v>
       </c>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11936,12 +12456,14 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>10.2</v>
       </c>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11975,10 +12497,14 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J342" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12012,10 +12538,14 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J343" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12049,10 +12579,14 @@
         <v>-2089222.283839455</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J344" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12086,10 +12620,14 @@
         <v>-2069160.283839455</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="J345" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12123,10 +12661,14 @@
         <v>-2069160.283839455</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J346" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12160,10 +12702,14 @@
         <v>-2065034.161639455</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J347" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12197,10 +12743,14 @@
         <v>-2065083.181339455</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="J348" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12234,10 +12784,14 @@
         <v>-2057101.181839455</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J349" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12271,10 +12825,14 @@
         <v>-2062179.663139455</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="J350" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12308,12 +12866,14 @@
         <v>-1886746.955339455</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>10.15</v>
       </c>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12347,12 +12907,14 @@
         <v>-1878365.162739455</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>10.18</v>
       </c>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12386,12 +12948,14 @@
         <v>-1888505.828239455</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>10.2</v>
       </c>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12425,12 +12989,14 @@
         <v>-1871503.384639455</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>10.15</v>
       </c>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12464,10 +13030,14 @@
         <v>-1871503.384639455</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J355" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12501,10 +13071,14 @@
         <v>-1916087.488539455</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J356" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12538,10 +13112,14 @@
         <v>-1894886.638039455</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="J357" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12575,10 +13153,14 @@
         <v>-1894936.438839455</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J358" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12612,10 +13194,14 @@
         <v>-1869495.109239455</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="J359" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12649,10 +13235,14 @@
         <v>-1869495.109239455</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="J360" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12686,10 +13276,14 @@
         <v>-1891758.906839455</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="J361" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12723,10 +13317,14 @@
         <v>-1874998.632839455</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="J362" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12760,10 +13358,14 @@
         <v>-1897375.319739455</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="J363" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12797,10 +13399,14 @@
         <v>-1891668.319739455</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="J364" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12834,10 +13440,14 @@
         <v>-1892157.776539455</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="J365" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12871,10 +13481,14 @@
         <v>-1898093.620239455</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="J366" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12908,10 +13522,14 @@
         <v>-1897066.620239455</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="J367" t="n">
+        <v>10.11</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12923,6 +13541,6 @@
       <c r="M367" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest OGO.xlsx
+++ b/BackTest/2020-01-13 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>744948.3642999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>990553.461962712</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9.791</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.791</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>868829.673762712</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9.791</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -565,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>9.791</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,14 +583,10 @@
         <v>607124.931162712</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -641,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -680,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -749,17 +715,11 @@
         <v>797953.7082912714</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -792,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -825,17 +781,11 @@
         <v>890148.3944885191</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -864,17 +814,11 @@
         <v>2738016.756291271</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -903,15 +847,11 @@
         <v>2120679.264191271</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -944,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -981,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1018,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1055,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1092,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1129,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1166,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1203,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1240,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1277,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1314,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1351,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1388,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1425,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1462,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1499,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1536,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1610,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1647,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1680,16 +1540,14 @@
         <v>3275227.396461445</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
       <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1715,7 +1573,7 @@
         <v>2903045.860361445</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1748,7 +1606,7 @@
         <v>1657446.029961445</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1781,7 +1639,7 @@
         <v>2418645.200161445</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1814,7 +1672,7 @@
         <v>2991096.361161445</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1847,7 +1705,7 @@
         <v>3252640.506561445</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1979,7 +1837,7 @@
         <v>3272622.917161445</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2045,7 +1903,7 @@
         <v>2961672.381861445</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2078,7 +1936,7 @@
         <v>2369101.713861444</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2111,7 +1969,7 @@
         <v>2369101.713861444</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2144,7 +2002,7 @@
         <v>1636772.004861444</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2177,7 +2035,7 @@
         <v>1573437.107561444</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2210,7 +2068,7 @@
         <v>558449.8531614444</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2243,7 +2101,7 @@
         <v>750690.1779737694</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2276,7 +2134,7 @@
         <v>611422.0431737694</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2309,7 +2167,7 @@
         <v>719176.9472737694</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2342,7 +2200,7 @@
         <v>1069912.080178955</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2375,7 +2233,7 @@
         <v>954962.7592789546</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2408,7 +2266,7 @@
         <v>954962.7592789546</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2441,7 +2299,7 @@
         <v>1033051.217978955</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2474,7 +2332,7 @@
         <v>1231500.629478954</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2507,7 +2365,7 @@
         <v>1165796.586878954</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2540,7 +2398,7 @@
         <v>1165796.586878954</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2573,7 +2431,7 @@
         <v>1165796.586878954</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2606,7 +2464,7 @@
         <v>1204535.694878954</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2639,7 +2497,7 @@
         <v>1220748.535178954</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2672,7 +2530,7 @@
         <v>1152240.918178954</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2738,7 +2596,7 @@
         <v>1408292.868778954</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2837,7 +2695,7 @@
         <v>1397981.943378954</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2903,7 +2761,7 @@
         <v>1424400.077578954</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3002,7 +2860,7 @@
         <v>1443136.139578955</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3035,7 +2893,7 @@
         <v>1443136.139578955</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3068,7 +2926,7 @@
         <v>1431758.408678954</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -8249,14 +8107,10 @@
         <v>-1856461.075755305</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="J234" t="n">
-        <v>10.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
@@ -8289,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8328,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8892,14 +8734,10 @@
         <v>-1199449.734555305</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="J253" t="n">
-        <v>10.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
@@ -8932,1548 +8770,1286 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="C255" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="D255" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="E255" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="F255" t="n">
+        <v>5701.1196</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-1403252.178355305</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="C256" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="D256" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="E256" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2823.8844</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-1400428.293955305</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="C257" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="D257" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="E257" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="F257" t="n">
+        <v>783</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-1401211.293955305</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="C258" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="D258" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="E258" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="F258" t="n">
+        <v>3698.8902</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-1404910.184155305</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="C259" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="D259" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="E259" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="F259" t="n">
+        <v>73925.4604</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-1404910.184155305</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="C260" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="D260" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="E260" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2333.6651</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-1404910.184155305</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="C261" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="D261" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="E261" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="F261" t="n">
+        <v>4406</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-1400504.184155305</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="C262" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="D262" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="E262" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="F262" t="n">
+        <v>51456</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-1451960.184155305</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="C263" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="D263" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="E263" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="F263" t="n">
+        <v>207148</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-1244812.184155305</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
         <v>10.11</v>
       </c>
-      <c r="K254" t="inlineStr">
+      <c r="C264" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="D264" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="E264" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="F264" t="n">
+        <v>136927.8067</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-1381739.990855305</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C265" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E265" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F265" t="n">
+        <v>7850</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-1373889.990855305</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="C266" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="D266" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="E266" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="F266" t="n">
+        <v>80165.60340000001</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-1454055.594255305</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C267" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E267" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="F267" t="n">
+        <v>38607.0941</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-1415448.500155305</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="C268" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="D268" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="E268" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="F268" t="n">
+        <v>38557.0517</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-1454005.551855305</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="C269" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="D269" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="E269" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="F269" t="n">
+        <v>37258.8268</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-1454005.551855305</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="C270" t="n">
+        <v>10</v>
+      </c>
+      <c r="D270" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="E270" t="n">
+        <v>10</v>
+      </c>
+      <c r="F270" t="n">
+        <v>47435.3893</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-1501440.941155305</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="C271" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="D271" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="E271" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="F271" t="n">
+        <v>17556.4126</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-1483884.528555305</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="C272" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="D272" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="E272" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="F272" t="n">
+        <v>134362.2845</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-1349522.244055305</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="C273" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="D273" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="E273" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="F273" t="n">
+        <v>39750.53</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-1389272.774055305</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="C274" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="D274" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="E274" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="F274" t="n">
+        <v>33055.2768</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-1356217.497255305</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="C275" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="D275" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="E275" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="F275" t="n">
+        <v>84.3944</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-1356133.102855305</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="C276" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="D276" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="E276" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="F276" t="n">
+        <v>264.4809</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-1356397.583755305</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="C277" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="D277" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="E277" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="F277" t="n">
+        <v>927.7679000000001</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-1356397.583755305</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="C278" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="D278" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="E278" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="F278" t="n">
+        <v>101919.0766</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-1254478.507155305</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C279" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D279" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E279" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F279" t="n">
+        <v>200</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-1254278.507155305</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="C280" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="D280" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="E280" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="F280" t="n">
+        <v>29500</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-1283778.507155305</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="C281" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="D281" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="E281" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="F281" t="n">
+        <v>75177.06479999999</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-1283778.507155305</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C282" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D282" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E282" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F282" t="n">
+        <v>581.5421</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-1283196.965055305</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C283" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D283" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E283" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F283" t="n">
+        <v>24393.0471</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-1283196.965055305</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="C284" t="n">
+        <v>10</v>
+      </c>
+      <c r="D284" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="E284" t="n">
+        <v>10</v>
+      </c>
+      <c r="F284" t="n">
+        <v>54872.1796</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-1338069.144655305</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="C285" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="D285" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="E285" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="F285" t="n">
+        <v>90122.3642</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-1428191.508855305</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="C286" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="D286" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="E286" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="F286" t="n">
+        <v>92326.20359999999</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-1428191.508855305</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="C287" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="D287" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="E287" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="F287" t="n">
+        <v>63021.4595</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-1428191.508855305</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="C288" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="D288" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="E288" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="F288" t="n">
+        <v>927.7679000000001</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-1429119.276755305</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="C289" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="D289" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="E289" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="F289" t="n">
+        <v>24393.0471</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-1429119.276755305</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="J289" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="C290" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="D290" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="E290" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="F290" t="n">
+        <v>37964.5748</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-1429119.276755305</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="C291" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="D291" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="E291" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="F291" t="n">
+        <v>56946.8623</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-1429119.276755305</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="C292" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="D292" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="E292" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="F292" t="n">
+        <v>39514.1467</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-1468633.423455305</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="J292" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="K292" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="C255" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="D255" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="E255" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="F255" t="n">
-        <v>5701.1196</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-1403252.178355305</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="C256" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="D256" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="E256" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="F256" t="n">
-        <v>2823.8844</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-1400428.293955305</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="C257" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="D257" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="E257" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="F257" t="n">
-        <v>783</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-1401211.293955305</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="C258" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="D258" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="E258" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="F258" t="n">
-        <v>3698.8902</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-1404910.184155305</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="C259" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="D259" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="E259" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="F259" t="n">
-        <v>73925.4604</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-1404910.184155305</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="J259" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="C260" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="D260" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="E260" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="F260" t="n">
-        <v>2333.6651</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-1404910.184155305</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="C261" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="D261" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="E261" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="F261" t="n">
-        <v>4406</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-1400504.184155305</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="J261" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="C262" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="D262" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="E262" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="F262" t="n">
-        <v>51456</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-1451960.184155305</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="J262" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="C263" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="D263" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="E263" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="F263" t="n">
-        <v>207148</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-1244812.184155305</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="J263" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="C264" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="D264" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="E264" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="F264" t="n">
-        <v>136927.8067</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-1381739.990855305</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="J264" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="C265" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="D265" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="E265" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F265" t="n">
-        <v>7850</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-1373889.990855305</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="J265" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="C266" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="D266" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="E266" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="F266" t="n">
-        <v>80165.60340000001</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-1454055.594255305</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="J266" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="C267" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="D267" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="E267" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="F267" t="n">
-        <v>38607.0941</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-1415448.500155305</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="J267" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="C268" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="D268" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="E268" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="F268" t="n">
-        <v>38557.0517</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-1454005.551855305</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="C269" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="D269" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="E269" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="F269" t="n">
-        <v>37258.8268</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-1454005.551855305</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="J269" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="C270" t="n">
-        <v>10</v>
-      </c>
-      <c r="D270" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="E270" t="n">
-        <v>10</v>
-      </c>
-      <c r="F270" t="n">
-        <v>47435.3893</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-1501440.941155305</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="C271" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="D271" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="E271" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="F271" t="n">
-        <v>17556.4126</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-1483884.528555305</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>10</v>
-      </c>
-      <c r="J271" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="C272" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="D272" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="E272" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="F272" t="n">
-        <v>134362.2845</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-1349522.244055305</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="C273" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="D273" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="E273" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="F273" t="n">
-        <v>39750.53</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-1389272.774055305</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="J273" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="C274" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="D274" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="E274" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="F274" t="n">
-        <v>33055.2768</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-1356217.497255305</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="C275" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="D275" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="E275" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="F275" t="n">
-        <v>84.3944</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-1356133.102855305</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="J275" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="C276" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="D276" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="E276" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="F276" t="n">
-        <v>264.4809</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-1356397.583755305</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="J276" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="C277" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="D277" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="E277" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="F277" t="n">
-        <v>927.7679000000001</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-1356397.583755305</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="J277" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="C278" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="D278" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="E278" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="F278" t="n">
-        <v>101919.0766</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-1254478.507155305</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="C279" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="D279" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="E279" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F279" t="n">
-        <v>200</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-1254278.507155305</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="J279" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="C280" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="D280" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="E280" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="F280" t="n">
-        <v>29500</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-1283778.507155305</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="C281" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="D281" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="E281" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="F281" t="n">
-        <v>75177.06479999999</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-1283778.507155305</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="J281" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="C282" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="D282" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="E282" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F282" t="n">
-        <v>581.5421</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-1283196.965055305</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="J282" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="C283" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="D283" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="E283" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F283" t="n">
-        <v>24393.0471</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-1283196.965055305</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="C284" t="n">
-        <v>10</v>
-      </c>
-      <c r="D284" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="E284" t="n">
-        <v>10</v>
-      </c>
-      <c r="F284" t="n">
-        <v>54872.1796</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-1338069.144655305</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="J284" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="C285" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="D285" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="E285" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="F285" t="n">
-        <v>90122.3642</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-1428191.508855305</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>10</v>
-      </c>
-      <c r="J285" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="C286" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="D286" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="E286" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="F286" t="n">
-        <v>92326.20359999999</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-1428191.508855305</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="J286" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="C287" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="D287" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="E287" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="F287" t="n">
-        <v>63021.4595</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-1428191.508855305</v>
-      </c>
-      <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="J287" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="C288" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="D288" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="E288" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="F288" t="n">
-        <v>927.7679000000001</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-1429119.276755305</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>9.999000000000001</v>
-      </c>
-      <c r="J288" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="C289" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="D289" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="E289" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="F289" t="n">
-        <v>24393.0471</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-1429119.276755305</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="J289" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="C290" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="D290" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="E290" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="F290" t="n">
-        <v>37964.5748</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-1429119.276755305</v>
-      </c>
-      <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="J290" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="C291" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="D291" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="E291" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="F291" t="n">
-        <v>56946.8623</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-1429119.276755305</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="J291" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="C292" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="D292" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="E292" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="F292" t="n">
-        <v>39514.1467</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-1468633.423455305</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="J292" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10508,7 +10084,7 @@
         <v>9.98</v>
       </c>
       <c r="J293" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10549,7 +10125,7 @@
         <v>10</v>
       </c>
       <c r="J294" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10590,7 +10166,7 @@
         <v>10</v>
       </c>
       <c r="J295" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10631,7 +10207,7 @@
         <v>10</v>
       </c>
       <c r="J296" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10672,7 +10248,7 @@
         <v>10</v>
       </c>
       <c r="J297" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10711,7 +10287,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10750,7 +10326,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10785,13 +10361,11 @@
         <v>-1540379.715055305</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
         <v>9.981</v>
-      </c>
-      <c r="J300" t="n">
-        <v>10.11</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10832,7 +10406,7 @@
         <v>9.981</v>
       </c>
       <c r="J301" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10867,13 +10441,11 @@
         <v>-1548286.043255305</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>9.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10908,13 +10480,11 @@
         <v>-1549465.258855305</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>9.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10955,7 +10525,7 @@
         <v>9.975</v>
       </c>
       <c r="J304" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10996,7 +10566,7 @@
         <v>9.976000000000001</v>
       </c>
       <c r="J305" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11037,7 +10607,7 @@
         <v>9.974</v>
       </c>
       <c r="J306" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11072,13 +10642,11 @@
         <v>-1803650.068755305</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>10.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11113,13 +10681,11 @@
         <v>-1803650.068755305</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>10.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11154,13 +10720,11 @@
         <v>-1803650.068755305</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>10.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11195,13 +10759,11 @@
         <v>-1736181.064255305</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>10.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11236,13 +10798,11 @@
         <v>-1736181.064255305</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>10.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11277,13 +10837,11 @@
         <v>-1689143.064255305</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>10.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11322,7 +10880,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11361,7 +10919,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11400,7 +10958,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11439,7 +10997,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11478,7 +11036,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11513,13 +11071,11 @@
         <v>-1812353.930339455</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>10.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11554,13 +11110,11 @@
         <v>-1812353.930339455</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>10.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11595,13 +11149,11 @@
         <v>-1956169.633739455</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>10.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11636,13 +11188,11 @@
         <v>-2008805.905239455</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>10.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11677,13 +11227,11 @@
         <v>-2008902.992639455</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>10.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11718,13 +11266,11 @@
         <v>-2008952.060439455</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>10.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11759,13 +11305,11 @@
         <v>-2008952.060439455</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>10.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11800,13 +11344,11 @@
         <v>-2037531.455439455</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>10.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11841,13 +11383,11 @@
         <v>-2037531.455439455</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>10.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11882,13 +11422,11 @@
         <v>-2026826.511239455</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>10.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11923,13 +11461,11 @@
         <v>-2026826.511239455</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>10.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11964,13 +11500,11 @@
         <v>-2026826.511239455</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>10.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12005,13 +11539,11 @@
         <v>-2132215.964939455</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>10.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12046,13 +11578,11 @@
         <v>-2132165.919839455</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
         <v>9.981</v>
-      </c>
-      <c r="J331" t="n">
-        <v>10.11</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12087,13 +11617,11 @@
         <v>-2116327.220439455</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>9.991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12128,13 +11656,11 @@
         <v>-2116376.288239455</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>10.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12169,13 +11695,11 @@
         <v>-2116376.288239455</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>10.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12210,13 +11734,11 @@
         <v>-2116376.288239455</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>10.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12251,13 +11773,11 @@
         <v>-2093178.288239455</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>10.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12292,13 +11812,11 @@
         <v>-2087178.288239455</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12333,13 +11851,11 @@
         <v>-2088238.319839455</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>10.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12374,13 +11890,11 @@
         <v>-2088288.170339455</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12415,13 +11929,11 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12456,13 +11968,11 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12497,13 +12007,11 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12538,13 +12046,11 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12579,13 +12085,11 @@
         <v>-2089222.283839455</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12620,13 +12124,11 @@
         <v>-2069160.283839455</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12661,13 +12163,11 @@
         <v>-2069160.283839455</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12702,13 +12202,11 @@
         <v>-2065034.161639455</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12743,13 +12241,11 @@
         <v>-2065083.181339455</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>10.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12784,13 +12280,11 @@
         <v>-2057101.181839455</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12825,13 +12319,11 @@
         <v>-2062179.663139455</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>10.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12866,13 +12358,11 @@
         <v>-1886746.955339455</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12907,13 +12397,11 @@
         <v>-1878365.162739455</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>10.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12948,13 +12436,11 @@
         <v>-1888505.828239455</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12989,13 +12475,11 @@
         <v>-1871503.384639455</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -13030,13 +12514,11 @@
         <v>-1871503.384639455</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -13071,13 +12553,11 @@
         <v>-1916087.488539455</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -13112,13 +12592,11 @@
         <v>-1894886.638039455</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>10.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13153,13 +12631,11 @@
         <v>-1894936.438839455</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13200,7 +12676,7 @@
         <v>10.04</v>
       </c>
       <c r="J359" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13241,7 +12717,7 @@
         <v>10.19</v>
       </c>
       <c r="J360" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13282,7 +12758,7 @@
         <v>10.19</v>
       </c>
       <c r="J361" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13323,7 +12799,7 @@
         <v>10.16</v>
       </c>
       <c r="J362" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13364,7 +12840,7 @@
         <v>10.18</v>
       </c>
       <c r="J363" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13405,7 +12881,7 @@
         <v>10.15</v>
       </c>
       <c r="J364" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13446,7 +12922,7 @@
         <v>10.17</v>
       </c>
       <c r="J365" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13487,7 +12963,7 @@
         <v>10.13</v>
       </c>
       <c r="J366" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13528,7 +13004,7 @@
         <v>10.1</v>
       </c>
       <c r="J367" t="n">
-        <v>10.11</v>
+        <v>9.981</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13541,6 +13017,6 @@
       <c r="M367" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest OGO.xlsx
+++ b/BackTest/2020-01-13 BackTest OGO.xlsx
@@ -847,7 +847,7 @@
         <v>2120679.264191271</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>3275227.396461445</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2903045.860361445</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1657446.029961445</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2418645.200161445</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2991096.361161445</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>3252640.506561445</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>3272622.917161445</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2961672.381861445</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>2369101.713861444</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>2369101.713861444</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -9922,14 +9922,10 @@
         <v>-1429119.276755305</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="J289" t="n">
-        <v>9.981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
@@ -9962,496 +9958,414 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
         <v>9.981</v>
       </c>
-      <c r="K290" t="inlineStr">
+      <c r="C291" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="D291" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="E291" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="F291" t="n">
+        <v>56946.8623</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-1429119.276755305</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="C292" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="D292" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="E292" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="F292" t="n">
+        <v>39514.1467</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-1468633.423455305</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="C293" t="n">
+        <v>10</v>
+      </c>
+      <c r="D293" t="n">
+        <v>10</v>
+      </c>
+      <c r="E293" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="F293" t="n">
+        <v>8938.5555</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-1459694.867955305</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>10</v>
+      </c>
+      <c r="C294" t="n">
+        <v>10</v>
+      </c>
+      <c r="D294" t="n">
+        <v>10</v>
+      </c>
+      <c r="E294" t="n">
+        <v>10</v>
+      </c>
+      <c r="F294" t="n">
+        <v>16114.6553</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-1459694.867955305</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>10</v>
+      </c>
+      <c r="C295" t="n">
+        <v>10</v>
+      </c>
+      <c r="D295" t="n">
+        <v>10</v>
+      </c>
+      <c r="E295" t="n">
+        <v>10</v>
+      </c>
+      <c r="F295" t="n">
+        <v>19929.0209</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-1459694.867955305</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>10</v>
+      </c>
+      <c r="C296" t="n">
+        <v>10</v>
+      </c>
+      <c r="D296" t="n">
+        <v>10</v>
+      </c>
+      <c r="E296" t="n">
+        <v>10</v>
+      </c>
+      <c r="F296" t="n">
+        <v>5357.2708</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-1459694.867955305</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>10</v>
+      </c>
+      <c r="C297" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="D297" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="E297" t="n">
+        <v>10</v>
+      </c>
+      <c r="F297" t="n">
+        <v>7589.9932</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-1452104.874755305</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="C298" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="D298" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="E298" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="F298" t="n">
+        <v>113.1664</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-1452104.874755305</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="C299" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="D299" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E299" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="F299" t="n">
+        <v>88274.8403</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-1540379.715055305</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="C300" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="D300" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="E300" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="F300" t="n">
+        <v>53366.4815</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-1540379.715055305</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="C301" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="D301" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="E301" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="F301" t="n">
+        <v>7906.3282</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-1548286.043255305</v>
+      </c>
+      <c r="H301" t="n">
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="J301" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="C302" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="D302" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="E302" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="F302" t="n">
+        <v>3690.4134</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-1548286.043255305</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="K302" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="C291" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="D291" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="E291" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="F291" t="n">
-        <v>56946.8623</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-1429119.276755305</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="C292" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="D292" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="E292" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="F292" t="n">
-        <v>39514.1467</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-1468633.423455305</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="J292" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="C293" t="n">
-        <v>10</v>
-      </c>
-      <c r="D293" t="n">
-        <v>10</v>
-      </c>
-      <c r="E293" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="F293" t="n">
-        <v>8938.5555</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-1459694.867955305</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="J293" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>10</v>
-      </c>
-      <c r="C294" t="n">
-        <v>10</v>
-      </c>
-      <c r="D294" t="n">
-        <v>10</v>
-      </c>
-      <c r="E294" t="n">
-        <v>10</v>
-      </c>
-      <c r="F294" t="n">
-        <v>16114.6553</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-1459694.867955305</v>
-      </c>
-      <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>10</v>
-      </c>
-      <c r="J294" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>10</v>
-      </c>
-      <c r="C295" t="n">
-        <v>10</v>
-      </c>
-      <c r="D295" t="n">
-        <v>10</v>
-      </c>
-      <c r="E295" t="n">
-        <v>10</v>
-      </c>
-      <c r="F295" t="n">
-        <v>19929.0209</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-1459694.867955305</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>10</v>
-      </c>
-      <c r="J295" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>10</v>
-      </c>
-      <c r="C296" t="n">
-        <v>10</v>
-      </c>
-      <c r="D296" t="n">
-        <v>10</v>
-      </c>
-      <c r="E296" t="n">
-        <v>10</v>
-      </c>
-      <c r="F296" t="n">
-        <v>5357.2708</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-1459694.867955305</v>
-      </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>10</v>
-      </c>
-      <c r="J296" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>10</v>
-      </c>
-      <c r="C297" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="D297" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="E297" t="n">
-        <v>10</v>
-      </c>
-      <c r="F297" t="n">
-        <v>7589.9932</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-1452104.874755305</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>10</v>
-      </c>
-      <c r="J297" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="C298" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="D298" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="E298" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="F298" t="n">
-        <v>113.1664</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-1452104.874755305</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="C299" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="D299" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="E299" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="F299" t="n">
-        <v>88274.8403</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-1540379.715055305</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="C300" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="D300" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="E300" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="F300" t="n">
-        <v>53366.4815</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-1540379.715055305</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="C301" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="D301" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="E301" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="F301" t="n">
-        <v>7906.3282</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-1548286.043255305</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="J301" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="C302" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="D302" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="E302" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="F302" t="n">
-        <v>3690.4134</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-1548286.043255305</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10480,15 +10394,17 @@
         <v>-1549465.258855305</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>9.98</v>
+      </c>
       <c r="J303" t="n">
         <v>9.981</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L303" t="n">
@@ -10642,9 +10558,11 @@
         <v>-1803650.068755305</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>10.1</v>
+      </c>
       <c r="J307" t="n">
         <v>9.981</v>
       </c>
@@ -10681,9 +10599,11 @@
         <v>-1803650.068755305</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>10.07</v>
+      </c>
       <c r="J308" t="n">
         <v>9.981</v>
       </c>
@@ -10720,9 +10640,11 @@
         <v>-1803650.068755305</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>10.07</v>
+      </c>
       <c r="J309" t="n">
         <v>9.981</v>
       </c>
@@ -10759,9 +10681,11 @@
         <v>-1736181.064255305</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>10.07</v>
+      </c>
       <c r="J310" t="n">
         <v>9.981</v>
       </c>
@@ -10798,9 +10722,11 @@
         <v>-1736181.064255305</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>10.17</v>
+      </c>
       <c r="J311" t="n">
         <v>9.981</v>
       </c>
@@ -10837,9 +10763,11 @@
         <v>-1689143.064255305</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>10.17</v>
+      </c>
       <c r="J312" t="n">
         <v>9.981</v>
       </c>
@@ -10876,9 +10804,11 @@
         <v>-1787582.880155305</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>10.47</v>
+      </c>
       <c r="J313" t="n">
         <v>9.981</v>
       </c>
@@ -11110,9 +11040,11 @@
         <v>-1812353.930339455</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>10.38</v>
+      </c>
       <c r="J319" t="n">
         <v>9.981</v>
       </c>
@@ -11149,9 +11081,11 @@
         <v>-1956169.633739455</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>10.38</v>
+      </c>
       <c r="J320" t="n">
         <v>9.981</v>
       </c>
@@ -11188,9 +11122,11 @@
         <v>-2008805.905239455</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>10.37</v>
+      </c>
       <c r="J321" t="n">
         <v>9.981</v>
       </c>
@@ -11227,9 +11163,11 @@
         <v>-2008902.992639455</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>10.32</v>
+      </c>
       <c r="J322" t="n">
         <v>9.981</v>
       </c>
@@ -11266,9 +11204,11 @@
         <v>-2008952.060439455</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>10.3</v>
+      </c>
       <c r="J323" t="n">
         <v>9.981</v>
       </c>
@@ -11305,9 +11245,11 @@
         <v>-2008952.060439455</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>10.19</v>
+      </c>
       <c r="J324" t="n">
         <v>9.981</v>
       </c>
@@ -11344,9 +11286,11 @@
         <v>-2037531.455439455</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>10.19</v>
+      </c>
       <c r="J325" t="n">
         <v>9.981</v>
       </c>
@@ -11383,9 +11327,11 @@
         <v>-2037531.455439455</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>10.1</v>
+      </c>
       <c r="J326" t="n">
         <v>9.981</v>
       </c>
@@ -11422,9 +11368,11 @@
         <v>-2026826.511239455</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>10.1</v>
+      </c>
       <c r="J327" t="n">
         <v>9.981</v>
       </c>
@@ -11461,9 +11409,11 @@
         <v>-2026826.511239455</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>10.19</v>
+      </c>
       <c r="J328" t="n">
         <v>9.981</v>
       </c>
@@ -11500,9 +11450,11 @@
         <v>-2026826.511239455</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>10.19</v>
+      </c>
       <c r="J329" t="n">
         <v>9.981</v>
       </c>
@@ -11539,9 +11491,11 @@
         <v>-2132215.964939455</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>10.19</v>
+      </c>
       <c r="J330" t="n">
         <v>9.981</v>
       </c>
@@ -11578,9 +11532,11 @@
         <v>-2132165.919839455</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>9.981</v>
+      </c>
       <c r="J331" t="n">
         <v>9.981</v>
       </c>
@@ -11617,9 +11573,11 @@
         <v>-2116327.220439455</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>9.991</v>
+      </c>
       <c r="J332" t="n">
         <v>9.981</v>
       </c>
@@ -11656,9 +11614,11 @@
         <v>-2116376.288239455</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>10.26</v>
+      </c>
       <c r="J333" t="n">
         <v>9.981</v>
       </c>
@@ -11695,9 +11655,11 @@
         <v>-2116376.288239455</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>10.19</v>
+      </c>
       <c r="J334" t="n">
         <v>9.981</v>
       </c>
@@ -11734,9 +11696,11 @@
         <v>-2116376.288239455</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>10.19</v>
+      </c>
       <c r="J335" t="n">
         <v>9.981</v>
       </c>
@@ -11773,9 +11737,11 @@
         <v>-2093178.288239455</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>10.19</v>
+      </c>
       <c r="J336" t="n">
         <v>9.981</v>
       </c>
@@ -11812,9 +11778,11 @@
         <v>-2087178.288239455</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J337" t="n">
         <v>9.981</v>
       </c>
@@ -11851,9 +11819,11 @@
         <v>-2088238.319839455</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>10.25</v>
+      </c>
       <c r="J338" t="n">
         <v>9.981</v>
       </c>
@@ -11890,9 +11860,11 @@
         <v>-2088288.170339455</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J339" t="n">
         <v>9.981</v>
       </c>
@@ -11929,9 +11901,11 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J340" t="n">
         <v>9.981</v>
       </c>
@@ -11968,9 +11942,11 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J341" t="n">
         <v>9.981</v>
       </c>
@@ -12007,9 +11983,11 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J342" t="n">
         <v>9.981</v>
       </c>
@@ -12046,9 +12024,11 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J343" t="n">
         <v>9.981</v>
       </c>
@@ -12085,9 +12065,11 @@
         <v>-2089222.283839455</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J344" t="n">
         <v>9.981</v>
       </c>
@@ -12124,9 +12106,11 @@
         <v>-2069160.283839455</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J345" t="n">
         <v>9.981</v>
       </c>
@@ -12163,9 +12147,11 @@
         <v>-2069160.283839455</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J346" t="n">
         <v>9.981</v>
       </c>
@@ -12202,9 +12188,11 @@
         <v>-2065034.161639455</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J347" t="n">
         <v>9.981</v>
       </c>
@@ -12241,9 +12229,11 @@
         <v>-2065083.181339455</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>10.23</v>
+      </c>
       <c r="J348" t="n">
         <v>9.981</v>
       </c>
@@ -12280,9 +12270,11 @@
         <v>-2057101.181839455</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J349" t="n">
         <v>9.981</v>
       </c>
@@ -12319,9 +12311,11 @@
         <v>-2062179.663139455</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>10.23</v>
+      </c>
       <c r="J350" t="n">
         <v>9.981</v>
       </c>
@@ -12358,9 +12352,11 @@
         <v>-1886746.955339455</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J351" t="n">
         <v>9.981</v>
       </c>
@@ -12397,9 +12393,11 @@
         <v>-1878365.162739455</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>10.18</v>
+      </c>
       <c r="J352" t="n">
         <v>9.981</v>
       </c>
@@ -12436,9 +12434,11 @@
         <v>-1888505.828239455</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J353" t="n">
         <v>9.981</v>
       </c>
@@ -12475,9 +12475,11 @@
         <v>-1871503.384639455</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J354" t="n">
         <v>9.981</v>
       </c>
@@ -12514,9 +12516,11 @@
         <v>-1871503.384639455</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J355" t="n">
         <v>9.981</v>
       </c>
@@ -12553,9 +12557,11 @@
         <v>-1916087.488539455</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J356" t="n">
         <v>9.981</v>
       </c>
@@ -12592,9 +12598,11 @@
         <v>-1894886.638039455</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>10.18</v>
+      </c>
       <c r="J357" t="n">
         <v>9.981</v>
       </c>
@@ -12631,9 +12639,11 @@
         <v>-1894936.438839455</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J358" t="n">
         <v>9.981</v>
       </c>
